--- a/data/trans_dic/P41D_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Provincia-trans_dic.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,52</t>
+          <t>0,0; 81,46</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,9</t>
+          <t>0,0; 45,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,08; 62,22</t>
+          <t>7,82; 60,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,39; 42,02</t>
+          <t>5,37; 38,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P41D_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -889,7 +889,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,46</t>
+          <t>0,0; 81,52</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,12</t>
+          <t>0,0; 40,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,82; 60,41</t>
+          <t>9,08; 62,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,37; 38,67</t>
+          <t>7,39; 42,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P41D_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Provincia-trans_dic.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,62%</t>
+          <t>43,99%</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>55,47%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>55,47%</t>
+          <t>55,32%</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>24,6%</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,52</t>
+          <t>0,0; 80,71</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>55,7%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>33,35%</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,66</t>
+          <t>0,0; 77,47</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>19,63%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,9</t>
+          <t>0,0; 42,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,08; 62,22</t>
+          <t>8,83; 62,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,39; 42,02</t>
+          <t>7,12; 42,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P41D_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +597,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +647,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -796,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -846,7 +847,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -889,7 +890,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,71</t>
+          <t>0,0; 83,15</t>
         </is>
       </c>
     </row>
@@ -939,7 +940,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 77,47</t>
+          <t>0,0; 76,95</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,33</t>
+          <t>0,0; 45,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,83; 62,45</t>
+          <t>8,55; 60,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,12; 42,21</t>
+          <t>7,31; 41,09</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que con respecto a la última vez que lo intentaron se quedó embarazada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1141</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1121</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>261; 1141</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2595</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 931</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 936</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1201</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2483</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 934</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2175</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 535</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 449</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 726</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1416</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1416</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3532</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1014</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4418</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1646</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1646</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1173</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2875</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 3798</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3571</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 6071</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>986; 7024</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1816; 10213</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>